--- a/data/trans_camb/IP15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>8,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -0,72</t>
+          <t>-1,66; 11,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,64</t>
+          <t>-8,62; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,46</t>
+          <t>-0,8; 12,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,65</t>
+          <t>-1,92; 9,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,12</t>
+          <t>-2,67; 8,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 11,68</t>
+          <t>4,77; 18,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,56</t>
+          <t>0,09; 8,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,21</t>
+          <t>-3,88; 4,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,3</t>
+          <t>4,06; 13,75</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>-13,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,75%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>50,14%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,38; -4,28</t>
+          <t>-7,45; 69,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 3,72</t>
+          <t>-38,64; 14,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 42,75</t>
+          <t>-4,56; 76,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 32,21</t>
+          <t>-10,64; 78,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 15,83</t>
+          <t>-13,58; 69,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 84,56</t>
+          <t>24,36; 142,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 3,49</t>
+          <t>0,19; 57,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,32; -1,19</t>
+          <t>-19,62; 26,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 43,89</t>
+          <t>19,14; 87,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,42</t>
+          <t>-10,76; -0,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 2,43</t>
+          <t>-9,86; 0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 12,89</t>
+          <t>-3,94; 7,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 9,96</t>
+          <t>-5,77; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 8,71</t>
+          <t>-8,05; 2,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,28</t>
+          <t>-1,72; 11,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,81</t>
+          <t>-6,94; 0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,17</t>
+          <t>-7,51; -0,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,75</t>
+          <t>-1,45; 7,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>-30,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-25,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>-17,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-21,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 69,91</t>
+          <t>-49,38; -4,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 14,92</t>
+          <t>-44,73; 3,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 76,84</t>
+          <t>-17,99; 42,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 78,73</t>
+          <t>-30,36; 32,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 69,51</t>
+          <t>-40,98; 15,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,36; 142,26</t>
+          <t>-9,59; 84,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 57,46</t>
+          <t>-34,63; 3,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 26,66</t>
+          <t>-37,32; -1,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,14; 87,07</t>
+          <t>-7,18; 43,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>6,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 12,67</t>
+          <t>-6,2; 11,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 4,21</t>
+          <t>-13,31; 3,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 16,76</t>
+          <t>0,49; 22,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,88</t>
+          <t>-11,38; 6,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 6,81</t>
+          <t>-16,0; 0,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 11,02</t>
+          <t>-11,04; 11,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,65</t>
+          <t>-6,21; 6,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,81</t>
+          <t>-11,89; 0,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,8</t>
+          <t>-2,25; 14,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-20,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-24,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>-22,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 71,66</t>
+          <t>-22,7; 56,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 26,19</t>
+          <t>-45,22; 17,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 92,27</t>
+          <t>0,22; 109,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 58,86</t>
+          <t>-35,1; 30,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 34,56</t>
+          <t>-49,67; 3,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 55,48</t>
+          <t>-34,42; 52,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 49,83</t>
+          <t>-21,64; 30,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 14,68</t>
+          <t>-41,11; 2,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 59,91</t>
+          <t>-7,99; 62,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,42</t>
+          <t>-0,75; 10,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 2,43</t>
+          <t>-9,02; 1,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 12,89</t>
+          <t>-0,27; 12,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 9,96</t>
+          <t>-0,09; 11,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 8,71</t>
+          <t>-2,55; 9,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,28</t>
+          <t>4,61; 19,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,81</t>
+          <t>1,19; 10,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,17</t>
+          <t>-4,3; 3,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,75</t>
+          <t>3,72; 13,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-16,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>46,54%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 69,91</t>
+          <t>-4,56; 62,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 14,92</t>
+          <t>-39,53; 10,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 76,84</t>
+          <t>-2,29; 74,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 78,73</t>
+          <t>-0,92; 80,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 69,51</t>
+          <t>-13,28; 65,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 142,26</t>
+          <t>24,63; 130,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 57,46</t>
+          <t>5,67; 60,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 26,66</t>
+          <t>-20,57; 21,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 87,07</t>
+          <t>17,76; 81,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,16</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,22</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -0,72</t>
+          <t>-6,72; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,64</t>
+          <t>-5,58; 8,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,46</t>
+          <t>-2,37; 11,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,65</t>
+          <t>-6,61; 8,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,12</t>
+          <t>-5,77; 8,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 11,68</t>
+          <t>-3,77; 10,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,56</t>
+          <t>-3,6; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,21</t>
+          <t>-4,07; 6,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,3</t>
+          <t>-1,09; 9,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,75%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>24,15%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,38; -4,28</t>
+          <t>-32,1; 62,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 3,72</t>
+          <t>-28,76; 67,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 42,75</t>
+          <t>-11,74; 89,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 32,21</t>
+          <t>-30,03; 65,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 15,83</t>
+          <t>-26,52; 63,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 84,56</t>
+          <t>-16,61; 80,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 3,49</t>
+          <t>-18,74; 42,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,32; -1,19</t>
+          <t>-19,84; 43,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 43,89</t>
+          <t>-5,24; 64,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,37</t>
+          <t>-10,95; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -0,23</t>
+          <t>-12,28; 0,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,46</t>
+          <t>-4,22; 9,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,0</t>
+          <t>-6,07; 6,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,73</t>
+          <t>-8,97; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,86</t>
+          <t>-0,03; 15,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,24</t>
+          <t>-6,93; 1,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,37</t>
+          <t>-8,93; -0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,81</t>
+          <t>-0,54; 9,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>-31,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>-15,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,53%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 23,94</t>
+          <t>-50,84; 8,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -1,01</t>
+          <t>-55,89; 2,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 39,73</t>
+          <t>-19,03; 55,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 35,93</t>
+          <t>-34,72; 49,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 16,14</t>
+          <t>-48,18; 25,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 58,69</t>
+          <t>-1,86; 118,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 23,55</t>
+          <t>-35,43; 8,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 2,04</t>
+          <t>-45,98; -2,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 43,13</t>
+          <t>-3,02; 62,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 4,83</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 0,04</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 7,4</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 5,92</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 2,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 10,21</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 4,22</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 0,42</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 7,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,79%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 26,4</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-31,09; 0,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 40,4</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 36,04</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 17,3</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 58,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 23,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,28; 2,35</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 43,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 11,23</t>
+          <t>-6,82; 10,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 3,45</t>
+          <t>-13,65; 2,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 22,44</t>
+          <t>0,52; 23,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 6,48</t>
+          <t>-11,68; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,74</t>
+          <t>-15,61; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 11,8</t>
+          <t>-10,57; 11,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,66</t>
+          <t>-6,79; 5,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,69</t>
+          <t>-11,67; 0,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 14,25</t>
+          <t>-2,28; 13,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 56,89</t>
+          <t>-23,22; 52,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 17,49</t>
+          <t>-47,9; 13,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 109,45</t>
+          <t>1,07; 108,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 30,34</t>
+          <t>-36,02; 25,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 3,54</t>
+          <t>-46,61; 10,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 52,41</t>
+          <t>-33,76; 51,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 30,24</t>
+          <t>-22,4; 26,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 2,21</t>
+          <t>-40,6; 0,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 62,19</t>
+          <t>-7,73; 59,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 10,75</t>
+          <t>-1,81; 10,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 1,74</t>
+          <t>-8,88; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 12,94</t>
+          <t>0,34; 13,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 11,76</t>
+          <t>-0,32; 11,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,26</t>
+          <t>-2,94; 9,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 19,2</t>
+          <t>4,25; 18,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,03</t>
+          <t>1,26; 9,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,56</t>
+          <t>-4,25; 3,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 13,6</t>
+          <t>4,18; 14,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 62,29</t>
+          <t>-7,81; 61,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 10,6</t>
+          <t>-39,01; 12,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 74,18</t>
+          <t>1,49; 79,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 80,49</t>
+          <t>-1,43; 84,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 65,96</t>
+          <t>-15,8; 60,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 130,09</t>
+          <t>20,92; 125,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 60,91</t>
+          <t>5,91; 56,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 21,81</t>
+          <t>-20,64; 22,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 81,66</t>
+          <t>20,71; 83,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 8,21</t>
+          <t>-7,01; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 8,8</t>
+          <t>-5,99; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,93</t>
+          <t>-2,34; 11,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,69</t>
+          <t>-6,34; 9,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 8,45</t>
+          <t>-5,5; 8,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 10,91</t>
+          <t>-4,22; 11,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,27</t>
+          <t>-4,21; 6,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,46</t>
+          <t>-3,78; 6,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,5</t>
+          <t>-1,05; 9,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 62,53</t>
+          <t>-35,18; 53,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 67,17</t>
+          <t>-28,7; 57,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 89,3</t>
+          <t>-11,6; 90,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 65,46</t>
+          <t>-29,86; 69,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 63,07</t>
+          <t>-26,41; 60,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 80,84</t>
+          <t>-19,7; 82,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 42,92</t>
+          <t>-21,33; 41,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 43,41</t>
+          <t>-18,85; 43,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 64,64</t>
+          <t>-5,29; 68,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 1,25</t>
+          <t>-11,27; 1,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 0,15</t>
+          <t>-12,24; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 9,42</t>
+          <t>-3,79; 9,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,22</t>
+          <t>-5,97; 6,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 3,01</t>
+          <t>-9,06; 3,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 15,57</t>
+          <t>0,02; 15,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,27</t>
+          <t>-6,99; 2,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,56</t>
+          <t>-8,7; -0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,72</t>
+          <t>-0,56; 9,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 8,26</t>
+          <t>-50,46; 8,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 2,4</t>
+          <t>-54,69; 8,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 55,63</t>
+          <t>-16,58; 59,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 49,66</t>
+          <t>-31,92; 46,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,18; 25,09</t>
+          <t>-49,1; 27,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 118,07</t>
+          <t>-1,92; 121,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 8,48</t>
+          <t>-36,55; 12,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,98; -2,66</t>
+          <t>-45,71; 0,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 62,32</t>
+          <t>-3,86; 61,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,83</t>
+          <t>-2,37; 4,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,04</t>
+          <t>-6,52; -0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,4</t>
+          <t>0,36; 7,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,92</t>
+          <t>-1,27; 5,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,91</t>
+          <t>-3,73; 3,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,21</t>
+          <t>1,39; 9,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,22</t>
+          <t>-0,9; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,42</t>
+          <t>-4,28; 0,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,61</t>
+          <t>1,76; 7,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 26,4</t>
+          <t>-11,2; 24,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 0,15</t>
+          <t>-30,17; -0,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,01; 40,4</t>
+          <t>1,53; 42,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 36,04</t>
+          <t>-6,26; 35,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 17,3</t>
+          <t>-18,41; 18,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,7; 58,87</t>
+          <t>6,23; 57,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 23,63</t>
+          <t>-4,41; 23,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 2,35</t>
+          <t>-20,74; 1,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,23; 43,2</t>
+          <t>8,27; 42,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,89</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-5,12</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 10,59</t>
+          <t>-11,74; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 2,99</t>
+          <t>-15,43; 1,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 23,28</t>
+          <t>-10,16; 12,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 5,7</t>
+          <t>-6,96; 10,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 2,15</t>
+          <t>-13,63; 2,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 11,78</t>
+          <t>1,51; 23,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 5,82</t>
+          <t>-6,1; 6,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 0,14</t>
+          <t>-11,58; 0,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 13,65</t>
+          <t>-0,74; 14,83</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-9,06%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-24,92%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,73%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-20,96%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>46,47%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,06%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-24,92%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 52,07</t>
+          <t>-35,34; 27,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 13,67</t>
+          <t>-47,82; 7,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 108,86</t>
+          <t>-32,81; 56,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 25,0</t>
+          <t>-23,27; 47,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 10,74</t>
+          <t>-47,37; 15,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 51,64</t>
+          <t>5,37; 115,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 26,47</t>
+          <t>-21,83; 30,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 0,65</t>
+          <t>-40,51; 1,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 59,69</t>
+          <t>-2,66; 65,24</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12,2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,96</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-3,38</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>9,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,76</t>
+          <t>0,82; 12,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,09</t>
+          <t>-2,44; 8,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 13,1</t>
+          <t>4,91; 19,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 11,79</t>
+          <t>-0,98; 10,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 9,17</t>
+          <t>-8,43; 2,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 18,11</t>
+          <t>0,08; 14,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,6</t>
+          <t>1,28; 9,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,76</t>
+          <t>-4,32; 3,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 14,14</t>
+          <t>4,26; 14,68</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71,46%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>24,7%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-16,84%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>31,22%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>34,31%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,55%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>50,86%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 61,8</t>
+          <t>4,19; 90,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 12,36</t>
+          <t>-14,05; 61,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 79,01</t>
+          <t>24,99; 131,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 84,17</t>
+          <t>-4,14; 67,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 60,54</t>
+          <t>-38,03; 13,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,92; 125,46</t>
+          <t>0,77; 81,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 56,53</t>
+          <t>5,97; 58,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 22,95</t>
+          <t>-21,08; 22,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 83,37</t>
+          <t>22,04; 88,26</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,87</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 7,47</t>
+          <t>-6,75; 8,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,31</t>
+          <t>-5,91; 8,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 11,45</t>
+          <t>-3,73; 11,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,08</t>
+          <t>-6,47; 9,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 8,43</t>
+          <t>-6,33; 8,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 11,15</t>
+          <t>-2,31; 12,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,07</t>
+          <t>-4,07; 5,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,34</t>
+          <t>-3,65; 6,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 9,94</t>
+          <t>-0,9; 9,51</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>4,9%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>5,17%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,63%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>26,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 53,91</t>
+          <t>-31,59; 64,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 57,15</t>
+          <t>-28,19; 59,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 90,82</t>
+          <t>-18,03; 84,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 69,08</t>
+          <t>-30,83; 73,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 60,51</t>
+          <t>-30,61; 63,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 82,05</t>
+          <t>-12,73; 94,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 41,92</t>
+          <t>-20,5; 38,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 43,71</t>
+          <t>-19,16; 42,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 68,41</t>
+          <t>-4,12; 66,19</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12,56</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-5,27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-6,06</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>7,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 1,26</t>
+          <t>-5,76; 6,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 0,93</t>
+          <t>-8,79; 3,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,43</t>
+          <t>2,51; 37,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,01</t>
+          <t>-11,6; 0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 3,17</t>
+          <t>-12,22; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 15,31</t>
+          <t>-4,98; 8,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 2,0</t>
+          <t>-6,96; 1,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -0,07</t>
+          <t>-8,71; -0,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,47</t>
+          <t>1,7; 19,99</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-19,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79,85%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-27,51%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-31,68%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>11,95%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-19,09%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 8,87</t>
+          <t>-31,89; 51,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 8,77</t>
+          <t>-48,78; 25,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 59,38</t>
+          <t>11,06; 275,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 46,16</t>
+          <t>-51,11; 5,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 27,31</t>
+          <t>-55,76; 0,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 121,34</t>
+          <t>-22,19; 52,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 12,64</t>
+          <t>-36,54; 9,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 0,01</t>
+          <t>-44,8; -1,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 61,29</t>
+          <t>8,27; 125,02</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,17</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-3,36</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,47</t>
+          <t>-0,75; 6,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,04</t>
+          <t>-3,84; 2,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,64</t>
+          <t>3,55; 18,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,97</t>
+          <t>-2,38; 4,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,24</t>
+          <t>-6,64; -0,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,89</t>
+          <t>-0,55; 7,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,24</t>
+          <t>-0,93; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,27</t>
+          <t>-4,4; 0,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,71</t>
+          <t>3,2; 11,67</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>45,94%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>5,89%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-16,89%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>12,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,65%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>31,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 24,1</t>
+          <t>-3,71; 35,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,17; -0,16</t>
+          <t>-19,16; 16,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,53; 42,25</t>
+          <t>17,95; 107,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 35,99</t>
+          <t>-10,96; 23,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 18,93</t>
+          <t>-30,26; -1,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,23; 57,59</t>
+          <t>-2,16; 41,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 23,35</t>
+          <t>-4,57; 23,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 1,5</t>
+          <t>-21,61; 2,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,27; 42,73</t>
+          <t>15,68; 61,83</t>
         </is>
       </c>
     </row>
